--- a/R&D Project Management .xlsx
+++ b/R&D Project Management .xlsx
@@ -523,10 +523,10 @@
         <v/>
       </c>
       <c r="O2" t="str">
-        <v>0/1</v>
+        <v>1/5</v>
       </c>
       <c r="P2" t="str">
-        <v xml:space="preserve">review meeting on 6th oct </v>
+        <v xml:space="preserve">Move drawing routines to sub macros to save on ROM usage?;Add user defined char spacing and space width to binary font support ;Improve Ellipse border drawing;Circular Slider?;review meeting on 6th oct </v>
       </c>
       <c r="Q2" t="str">
         <v/>
@@ -583,10 +583,10 @@
         <v/>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>0/4</v>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>Improve PIC bootloader - current one has problems, MCHP version requires python;Modify the CapTouchDisplay board to have better power distribution when WIFI active;Complete John's GLCD demo project file;Get BOMs to Jayne for production boards</v>
       </c>
       <c r="Q3" t="str">
         <v/>
@@ -848,7 +848,7 @@
         <v/>
       </c>
       <c r="O8" t="str">
-        <v>1/5</v>
+        <v>3/5</v>
       </c>
       <c r="P8" t="str">
         <v>Wiring Diagram;Build instructions;BOM generated and handed over;Test routine;Curriculum Review</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>73oN9Dk5cUyfqd_UU_fOZZcAFtyT</v>
+        <v>5y5l0fIjeE624LD42EA5mZcAD5gR</v>
       </c>
       <c r="B10" t="str">
-        <v>HP2001 Doc Updates</v>
+        <v>Structures branding plates</v>
       </c>
       <c r="C10" t="str">
         <v>In Progress</v>
@@ -927,25 +927,25 @@
         <v>Medium</v>
       </c>
       <c r="F10" t="str">
-        <v>Hamed Adefuwa</v>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="G10" t="str">
-        <v>Hamed Adefuwa</v>
+        <v>Jack Murphy</v>
       </c>
       <c r="H10" t="str">
-        <v>18/09/2025</v>
+        <v>04/09/2025</v>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>22/09/2025</v>
       </c>
       <c r="J10" t="str">
-        <v>01/02/2025</v>
+        <v>10/10/2025</v>
       </c>
       <c r="K10" t="str">
         <v>false</v>
       </c>
       <c r="L10" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M10" t="str">
         <v/>
@@ -954,21 +954,24 @@
         <v/>
       </c>
       <c r="O10" t="str">
-        <v/>
+        <v>2/4</v>
       </c>
       <c r="P10" t="str">
-        <v/>
+        <v>bom changes;instructions updated;prototypes made;fittted to prototypes</v>
       </c>
       <c r="Q10" t="str">
         <v/>
       </c>
-    </row>
-    <row r="11">
+      <c r="R10" t="str">
+        <v>structure branding plates to be pushed through to production</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>BACudhentEmElbKe8HUZq5cAJ0nP</v>
+        <v>73oN9Dk5cUyfqd_UU_fOZZcAFtyT</v>
       </c>
       <c r="B11" t="str">
-        <v>Thermo - Heat Exchanger</v>
+        <v>HP2001 Doc Updates</v>
       </c>
       <c r="C11" t="str">
         <v>In Progress</v>
@@ -977,28 +980,28 @@
         <v>In progress</v>
       </c>
       <c r="E11" t="str">
-        <v>Urgent</v>
+        <v>Low</v>
       </c>
       <c r="F11" t="str">
-        <v>Paul Connor;Jack Murphy</v>
+        <v>Hamed Adefuwa;Muhammad Abdullah</v>
       </c>
       <c r="G11" t="str">
-        <v>Jack Murphy</v>
+        <v>Hamed Adefuwa</v>
       </c>
       <c r="H11" t="str">
-        <v>05/09/2025</v>
+        <v>18/09/2025</v>
       </c>
       <c r="I11" t="str">
-        <v>01/01/2021</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v>02/12/2025</v>
+        <v>01/02/2025</v>
       </c>
       <c r="K11" t="str">
         <v>false</v>
       </c>
       <c r="L11" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M11" t="str">
         <v/>
@@ -1007,36 +1010,41 @@
         <v/>
       </c>
       <c r="O11" t="str">
-        <v>1/3</v>
+        <v/>
       </c>
       <c r="P11" t="str">
-        <v>Test software UI;Test shell &amp; tube;Test plate exchanger</v>
+        <v/>
       </c>
       <c r="Q11" t="str">
         <v/>
       </c>
-      <c r="R11" t="str">
-        <v>This project is top priority in the team - lots of testing happening.</v>
+      <c r="R11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Notes from John:
+HP2001 has changed. This necessitates some documentation changes. HP2001 is used in conjunction with several products:
+·         LK2410 Motors, generators and charging systems
+·         LK5281 High Voltage and Batteries
+·         LK8170 Fault finding
+What we need to do is identify all the places HP2001 is used and then modify the worksheets accordingly.</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DQsTzUJO9k-9g_d2mk8aXJcAJF0C</v>
+        <v>BACudhentEmElbKe8HUZq5cAJ0nP</v>
       </c>
       <c r="B12" t="str">
-        <v>Brief 6.5 - 6.5	ELECTRICAL ENGINEERING: SMART GRID TECHNOLOGY</v>
+        <v>Thermo - Heat Exchanger</v>
       </c>
       <c r="C12" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D12" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E12" t="str">
-        <v>Medium</v>
+        <v>Urgent</v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>Paul Connor;Jack Murphy</v>
       </c>
       <c r="G12" t="str">
         <v>Jack Murphy</v>
@@ -1045,10 +1053,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I12" t="str">
-        <v/>
+        <v>01/01/2021</v>
       </c>
       <c r="J12" t="str">
-        <v/>
+        <v>02/12/2025</v>
       </c>
       <c r="K12" t="str">
         <v>false</v>
@@ -1063,21 +1071,24 @@
         <v/>
       </c>
       <c r="O12" t="str">
-        <v/>
+        <v>1/3</v>
       </c>
       <c r="P12" t="str">
-        <v/>
+        <v>Test software UI;Test shell &amp; tube;Test plate exchanger</v>
       </c>
       <c r="Q12" t="str">
         <v/>
+      </c>
+      <c r="R12" t="str">
+        <v>This project is top priority in the team - lots of testing happening.</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>FImdJzhHtkS1tk-WX2nnU5cADK9r</v>
+        <v>DQsTzUJO9k-9g_d2mk8aXJcAJF0C</v>
       </c>
       <c r="B13" t="str">
-        <v>Brief 6.17 - AUTOMATICS CONTROL FIRMWARE FOR MIAC NXT</v>
+        <v>Brief 6.5 - 6.5	ELECTRICAL ENGINEERING: SMART GRID TECHNOLOGY</v>
       </c>
       <c r="C13" t="str">
         <v>All potential R&amp;D</v>
@@ -1127,22 +1138,22 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>GZMzSLWbmEKZEIEJJQGsfJcACscH</v>
+        <v>FImdJzhHtkS1tk-WX2nnU5cADK9r</v>
       </c>
       <c r="B14" t="str">
-        <v>Thermo - Stirling Engine</v>
+        <v>Brief 6.17 - AUTOMATICS CONTROL FIRMWARE FOR MIAC NXT</v>
       </c>
       <c r="C14" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D14" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E14" t="str">
-        <v>Urgent</v>
+        <v>Medium</v>
       </c>
       <c r="F14" t="str">
-        <v>Muhammad Abdullah;Maciej Kedzierski</v>
+        <v/>
       </c>
       <c r="G14" t="str">
         <v>Jack Murphy</v>
@@ -1151,16 +1162,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I14" t="str">
-        <v>01/01/2021</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v>04/09/2025</v>
+        <v/>
       </c>
       <c r="K14" t="str">
         <v>false</v>
       </c>
       <c r="L14" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M14" t="str">
         <v/>
@@ -1180,22 +1191,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>H0z1ZzTC9kGIXt1nc6O6hZcANI6D</v>
+        <v>GZMzSLWbmEKZEIEJJQGsfJcACscH</v>
       </c>
       <c r="B15" t="str">
-        <v>Brief 6.24 - MATERIAL TESTING</v>
+        <v>Thermo - Stirling Engine</v>
       </c>
       <c r="C15" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D15" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E15" t="str">
-        <v>Medium</v>
+        <v>Urgent</v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>Muhammad Abdullah;Maciej Kedzierski</v>
       </c>
       <c r="G15" t="str">
         <v>Jack Murphy</v>
@@ -1204,16 +1215,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>01/01/2021</v>
       </c>
       <c r="J15" t="str">
-        <v/>
+        <v>04/09/2025</v>
       </c>
       <c r="K15" t="str">
         <v>false</v>
       </c>
       <c r="L15" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M15" t="str">
         <v/>
@@ -1233,10 +1244,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>IMe-aTJf202HR6inv9_WD5cAGdtF</v>
+        <v>H0z1ZzTC9kGIXt1nc6O6hZcANI6D</v>
       </c>
       <c r="B16" t="str">
-        <v>Brief 6.6 - 6.6	MANUFACTURING ENGINEERING: HYDRAULICS</v>
+        <v>Brief 6.24 - MATERIAL TESTING</v>
       </c>
       <c r="C16" t="str">
         <v>All potential R&amp;D</v>
@@ -1286,10 +1297,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>JhEytzVabUap1r5I5mX4sJcADaso</v>
+        <v>IMe-aTJf202HR6inv9_WD5cAGdtF</v>
       </c>
       <c r="B17" t="str">
-        <v>Brief 6.31 - DRONE MOTOR TESTER</v>
+        <v>Brief 6.6 - 6.6	MANUFACTURING ENGINEERING: HYDRAULICS</v>
       </c>
       <c r="C17" t="str">
         <v>All potential R&amp;D</v>
@@ -1339,10 +1350,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>M8KSVEgENUydEcfHESEVXJcABFSd</v>
+        <v>JhEytzVabUap1r5I5mX4sJcADaso</v>
       </c>
       <c r="B18" t="str">
-        <v xml:space="preserve">Brief 6.1 - FLOWCODE: DIGITAL COMMUNICATIONS COURSE FOR FLOWCODE </v>
+        <v>Brief 6.31 - DRONE MOTOR TESTER</v>
       </c>
       <c r="C18" t="str">
         <v>All potential R&amp;D</v>
@@ -1351,7 +1362,7 @@
         <v>Not started</v>
       </c>
       <c r="E18" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -1360,7 +1371,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H18" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1392,10 +1403,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>NsY6AZ2Uq0mgMb2J7Pz5tpcABDDU</v>
+        <v>M8KSVEgENUydEcfHESEVXJcABFSd</v>
       </c>
       <c r="B19" t="str">
-        <v>Brief 6.20 - PROCESS CONTROL TOUCH SCREEN AND PCB UPDATE</v>
+        <v xml:space="preserve">Brief 6.1 - FLOWCODE: DIGITAL COMMUNICATIONS COURSE FOR FLOWCODE </v>
       </c>
       <c r="C19" t="str">
         <v>All potential R&amp;D</v>
@@ -1404,7 +1415,7 @@
         <v>Not started</v>
       </c>
       <c r="E19" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F19" t="str">
         <v/>
@@ -1413,7 +1424,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H19" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1445,34 +1456,34 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>OO1uWenPBESXEgCd-WRt2ZcAGGn-</v>
+        <v>Nq_BHhIjCkWyzrH5Cedy0JcAF96z</v>
       </c>
       <c r="B20" t="str">
-        <v>Brief 6.29 - GAS TURBINES</v>
+        <v>IO-Link</v>
       </c>
       <c r="C20" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D20" t="str">
         <v>Not started</v>
       </c>
       <c r="E20" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v>Paul Connor;Hamed Adefuwa</v>
       </c>
       <c r="G20" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H20" t="str">
-        <v>05/09/2025</v>
+        <v>26/09/2025</v>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>01/07/2025</v>
       </c>
       <c r="J20" t="str">
-        <v/>
+        <v>17/02/2026</v>
       </c>
       <c r="K20" t="str">
         <v>false</v>
@@ -1487,10 +1498,10 @@
         <v/>
       </c>
       <c r="O20" t="str">
-        <v/>
+        <v>0/1</v>
       </c>
       <c r="P20" t="str">
-        <v/>
+        <v xml:space="preserve">Define Learning Objectives </v>
       </c>
       <c r="Q20" t="str">
         <v/>
@@ -1498,22 +1509,22 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>OsJ1HO7BxEiMXSaA9dwGe5cAHygc</v>
+        <v>NsY6AZ2Uq0mgMb2J7Pz5tpcABDDU</v>
       </c>
       <c r="B21" t="str">
-        <v>Wind Tunnel 9in1 Test Jig</v>
+        <v>Brief 6.20 - PROCESS CONTROL TOUCH SCREEN AND PCB UPDATE</v>
       </c>
       <c r="C21" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D21" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E21" t="str">
-        <v>Important</v>
+        <v>Medium</v>
       </c>
       <c r="F21" t="str">
-        <v>Muhammad Abdullah;Valerii Pozdeev</v>
+        <v/>
       </c>
       <c r="G21" t="str">
         <v>Jack Murphy</v>
@@ -1522,7 +1533,7 @@
         <v>05/09/2025</v>
       </c>
       <c r="I21" t="str">
-        <v>26/09/2025</v>
+        <v/>
       </c>
       <c r="J21" t="str">
         <v/>
@@ -1551,13 +1562,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>PAzpS31YjUiR5TTaVxG3SJcAGgBx</v>
+        <v>OJuB4cNrqU2ahuZsOmJjo5cAPg2I</v>
       </c>
       <c r="B22" t="str">
-        <v>Brief 6.3 - ELECTRONIC ENGINEERING: MODERN ELECTRONIC TEST AND MEASUREMENT</v>
+        <v>Process Control Branding Plates</v>
       </c>
       <c r="C22" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D22" t="str">
         <v>Not started</v>
@@ -1566,19 +1577,19 @@
         <v>Medium</v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="G22" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H22" t="str">
-        <v>05/09/2025</v>
+        <v>04/09/2025</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>22/09/2025</v>
       </c>
       <c r="J22" t="str">
-        <v/>
+        <v>10/10/2025</v>
       </c>
       <c r="K22" t="str">
         <v>false</v>
@@ -1593,33 +1604,36 @@
         <v/>
       </c>
       <c r="O22" t="str">
-        <v/>
+        <v>1/4</v>
       </c>
       <c r="P22" t="str">
-        <v/>
+        <v>prototype made;fitted to product;bom changes;instructions update</v>
       </c>
       <c r="Q22" t="str">
         <v/>
+      </c>
+      <c r="R22" t="str">
+        <v>2 plates with engraves to be fitted across all process control</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>PJGZwd4qx0SmyUwcqEm92ZcALvzQ</v>
+        <v>OO1uWenPBESXEgCd-WRt2ZcAGGn-</v>
       </c>
       <c r="B23" t="str">
-        <v>EM Test Jig</v>
+        <v>Brief 6.29 - GAS TURBINES</v>
       </c>
       <c r="C23" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D23" t="str">
         <v>Not started</v>
       </c>
       <c r="E23" t="str">
-        <v>Important</v>
+        <v>Medium</v>
       </c>
       <c r="F23" t="str">
-        <v>Ben Rowland;Maciej Kedzierski</v>
+        <v/>
       </c>
       <c r="G23" t="str">
         <v>Jack Murphy</v>
@@ -1657,22 +1671,22 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Q-m3hBhnlk-WqYGP8YkJvpcAIuoz</v>
+        <v>OsJ1HO7BxEiMXSaA9dwGe5cAHygc</v>
       </c>
       <c r="B24" t="str">
-        <v>Brief 6.19 - ALLEN BRADLEY</v>
+        <v>Wind Tunnel 9in1 Test Jig</v>
       </c>
       <c r="C24" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D24" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E24" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>Muhammad Abdullah;Valerii Pozdeev</v>
       </c>
       <c r="G24" t="str">
         <v>Jack Murphy</v>
@@ -1681,7 +1695,7 @@
         <v>05/09/2025</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>26/09/2025</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1710,22 +1724,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>R5djo4GRpUuySllfXlk2VpcABdmR</v>
+        <v>PAzpS31YjUiR5TTaVxG3SJcAGgBx</v>
       </c>
       <c r="B25" t="str">
-        <v>Brief 6.33 - PA HILTON DATA LOGGER</v>
+        <v>Brief 6.3 - ELECTRONIC ENGINEERING: MODERN ELECTRONIC TEST AND MEASUREMENT</v>
       </c>
       <c r="C25" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D25" t="str">
         <v>Not started</v>
       </c>
       <c r="E25" t="str">
-        <v>Important</v>
+        <v>Medium</v>
       </c>
       <c r="F25" t="str">
-        <v>Paul Connor;Jack Murphy</v>
+        <v/>
       </c>
       <c r="G25" t="str">
         <v>Jack Murphy</v>
@@ -1734,10 +1748,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I25" t="str">
-        <v>01/08/2025</v>
+        <v/>
       </c>
       <c r="J25" t="str">
-        <v>03/10/2025</v>
+        <v/>
       </c>
       <c r="K25" t="str">
         <v>false</v>
@@ -1763,22 +1777,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>TTq9W8owZUOuoltQHmW6Y5cAE3Kz</v>
+        <v>PJGZwd4qx0SmyUwcqEm92ZcALvzQ</v>
       </c>
       <c r="B26" t="str">
-        <v>Metal plates  for gutted on forklift</v>
+        <v>EM Test Jig</v>
       </c>
       <c r="C26" t="str">
-        <v>In House projects</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D26" t="str">
         <v>Not started</v>
       </c>
       <c r="E26" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F26" t="str">
-        <v/>
+        <v>Ben Rowland;Maciej Kedzierski</v>
       </c>
       <c r="G26" t="str">
         <v>Jack Murphy</v>
@@ -1805,10 +1819,10 @@
         <v/>
       </c>
       <c r="O26" t="str">
-        <v/>
+        <v>1/4</v>
       </c>
       <c r="P26" t="str">
-        <v/>
+        <v>Make Jig for Driver board to make it easier to quick connect;Make MDF jig;Hand over to production;Obtain production batch of boards</v>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -1816,16 +1830,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>U0i4wOBB5Ueu9KrPSDGfn5cAPVh5</v>
+        <v>Q-m3hBhnlk-WqYGP8YkJvpcAIuoz</v>
       </c>
       <c r="B27" t="str">
-        <v>3 Phase Test Jig</v>
+        <v>Brief 6.19 - ALLEN BRADLEY</v>
       </c>
       <c r="C27" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D27" t="str">
-        <v>Completed</v>
+        <v>Not started</v>
       </c>
       <c r="E27" t="str">
         <v>Medium</v>
@@ -1852,10 +1866,10 @@
         <v>false</v>
       </c>
       <c r="M27" t="str">
-        <v>17/09/2025</v>
+        <v/>
       </c>
       <c r="N27" t="str">
-        <v>Jack Murphy</v>
+        <v/>
       </c>
       <c r="O27" t="str">
         <v/>
@@ -1869,22 +1883,22 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Ww9O2SQRvEypD0pDoItLrZcANcOo</v>
+        <v>R5djo4GRpUuySllfXlk2VpcABdmR</v>
       </c>
       <c r="B28" t="str">
-        <v>Brief 6.12 - HVAC</v>
+        <v>Brief 6.33 - PA HILTON DATA LOGGER</v>
       </c>
       <c r="C28" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D28" t="str">
         <v>Not started</v>
       </c>
       <c r="E28" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>Paul Connor;Jack Murphy</v>
       </c>
       <c r="G28" t="str">
         <v>Jack Murphy</v>
@@ -1893,10 +1907,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I28" t="str">
-        <v/>
+        <v>01/08/2025</v>
       </c>
       <c r="J28" t="str">
-        <v/>
+        <v>03/10/2025</v>
       </c>
       <c r="K28" t="str">
         <v>false</v>
@@ -1922,13 +1936,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>YcdO1B_YCU-lm6pqE2ec7ZcADgNx</v>
+        <v>TTq9W8owZUOuoltQHmW6Y5cAE3Kz</v>
       </c>
       <c r="B29" t="str">
-        <v>Brief 6.15 - NEW CONTROL APPLICATIONS</v>
+        <v>Metal plates  for gutted on forklift</v>
       </c>
       <c r="C29" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In House projects</v>
       </c>
       <c r="D29" t="str">
         <v>Not started</v>
@@ -1975,16 +1989,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>c7IXJRfWR0CSjNLmqAAMQJcAHWi0</v>
+        <v>U0i4wOBB5Ueu9KrPSDGfn5cAPVh5</v>
       </c>
       <c r="B30" t="str">
-        <v>Brief 6.21 - 6.21	FLUIDS CONTROLLER TOUCH SCREEN AND PCB UPDATE</v>
+        <v>3 Phase Test Jig</v>
       </c>
       <c r="C30" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D30" t="str">
-        <v>Not started</v>
+        <v>Completed</v>
       </c>
       <c r="E30" t="str">
         <v>Medium</v>
@@ -2011,10 +2025,10 @@
         <v>false</v>
       </c>
       <c r="M30" t="str">
-        <v/>
+        <v>17/09/2025</v>
       </c>
       <c r="N30" t="str">
-        <v/>
+        <v>Jack Murphy</v>
       </c>
       <c r="O30" t="str">
         <v/>
@@ -2028,10 +2042,10 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>dbSmE-Kkt06yA2W7GRqLgJcAMD-Z</v>
+        <v>Ww9O2SQRvEypD0pDoItLrZcANcOo</v>
       </c>
       <c r="B31" t="str">
-        <v>Brief 6.25 - FLUIDS PLUS</v>
+        <v>Brief 6.12 - HVAC</v>
       </c>
       <c r="C31" t="str">
         <v>All potential R&amp;D</v>
@@ -2081,10 +2095,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>fMjkr4Rf9kOk7zGvcATDkZcAFLr2</v>
+        <v>YcdO1B_YCU-lm6pqE2ec7ZcADgNx</v>
       </c>
       <c r="B32" t="str">
-        <v>Brief 6.16 - OPERATIONAL AMPLIFIERS UPDATE</v>
+        <v>Brief 6.15 - NEW CONTROL APPLICATIONS</v>
       </c>
       <c r="C32" t="str">
         <v>All potential R&amp;D</v>
@@ -2134,22 +2148,22 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>k3KjG1e6kEeOxodqO_EEhJcAGR6x</v>
+        <v>c7IXJRfWR0CSjNLmqAAMQJcAHWi0</v>
       </c>
       <c r="B33" t="str">
-        <v>Thermo - Heat Conduction</v>
+        <v>Brief 6.21 - 6.21	FLUIDS CONTROLLER TOUCH SCREEN AND PCB UPDATE</v>
       </c>
       <c r="C33" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D33" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E33" t="str">
-        <v>Urgent</v>
+        <v>Medium</v>
       </c>
       <c r="F33" t="str">
-        <v>Muhammad Abdullah</v>
+        <v/>
       </c>
       <c r="G33" t="str">
         <v>Jack Murphy</v>
@@ -2158,16 +2172,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I33" t="str">
-        <v>01/01/2022</v>
+        <v/>
       </c>
       <c r="J33" t="str">
-        <v>21/08/2025</v>
+        <v/>
       </c>
       <c r="K33" t="str">
         <v>false</v>
       </c>
       <c r="L33" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M33" t="str">
         <v/>
@@ -2187,10 +2201,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>ksflPH0KxkCE0nFRwqzr75cAKueW</v>
+        <v>dbSmE-Kkt06yA2W7GRqLgJcAMD-Z</v>
       </c>
       <c r="B34" t="str">
-        <v>Brief 6.4 - ENGINEERING MEASUREMENT, TEST AND CONTROL</v>
+        <v>Brief 6.25 - FLUIDS PLUS</v>
       </c>
       <c r="C34" t="str">
         <v>All potential R&amp;D</v>
@@ -2240,10 +2254,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>kuO0ruJa0EKAuKkcgkll35cAF1LC</v>
+        <v>fMjkr4Rf9kOk7zGvcATDkZcAFLr2</v>
       </c>
       <c r="B35" t="str">
-        <v>Brief 6.10 - TEST ROUTINE PROJECTS</v>
+        <v>Brief 6.16 - OPERATIONAL AMPLIFIERS UPDATE</v>
       </c>
       <c r="C35" t="str">
         <v>All potential R&amp;D</v>
@@ -2293,13 +2307,13 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>mAv25HuwpEau_c97lnuLm5cAP0P0</v>
+        <v>k3KjG1e6kEeOxodqO_EEhJcAGR6x</v>
       </c>
       <c r="B36" t="str">
-        <v>Lead Acid Battery case</v>
+        <v>Thermo - Heat Conduction</v>
       </c>
       <c r="C36" t="str">
-        <v>Production Based Projects</v>
+        <v>In Progress</v>
       </c>
       <c r="D36" t="str">
         <v>In progress</v>
@@ -2308,7 +2322,7 @@
         <v>Urgent</v>
       </c>
       <c r="F36" t="str">
-        <v>Valerii Pozdeev</v>
+        <v>Muhammad Abdullah</v>
       </c>
       <c r="G36" t="str">
         <v>Jack Murphy</v>
@@ -2317,16 +2331,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I36" t="str">
-        <v>23/09/2025</v>
+        <v>01/01/2022</v>
       </c>
       <c r="J36" t="str">
-        <v>03/10/2025</v>
+        <v>21/08/2025</v>
       </c>
       <c r="K36" t="str">
         <v>false</v>
       </c>
       <c r="L36" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M36" t="str">
         <v/>
@@ -2335,45 +2349,42 @@
         <v/>
       </c>
       <c r="O36" t="str">
-        <v>3/4</v>
+        <v/>
       </c>
       <c r="P36" t="str">
-        <v>BETA;First prototype;Hand project over to Maciej;Alpha</v>
+        <v/>
       </c>
       <c r="Q36" t="str">
         <v/>
-      </c>
-      <c r="R36" t="str">
-        <v>This is a top priority</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>mKuZbSSpbkmnlrwa34wvGpcAO-R5</v>
+        <v>ksflPH0KxkCE0nFRwqzr75cAKueW</v>
       </c>
       <c r="B37" t="str">
-        <v>IM phase 2</v>
+        <v>Brief 6.4 - ENGINEERING MEASUREMENT, TEST AND CONTROL</v>
       </c>
       <c r="C37" t="str">
-        <v>Research Phase</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D37" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E37" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F37" t="str">
-        <v>Hamed Adefuwa</v>
+        <v/>
       </c>
       <c r="G37" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H37" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I37" t="str">
-        <v>08/09/2025</v>
+        <v/>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -2391,10 +2402,10 @@
         <v/>
       </c>
       <c r="O37" t="str">
-        <v>0/2</v>
+        <v/>
       </c>
       <c r="P37" t="str">
-        <v>Electrical maintenance;Fluids troubleshooting</v>
+        <v/>
       </c>
       <c r="Q37" t="str">
         <v/>
@@ -2402,10 +2413,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>ojMCcsMsfE2rwZMZz9o_TJcAKIMo</v>
+        <v>kuO0ruJa0EKAuKkcgkll35cAF1LC</v>
       </c>
       <c r="B38" t="str">
-        <v>Brief 6.2 - ELECTRONIC ENGINEERING: E-BLOCKS 2 TECHNOLOGY UPDATE</v>
+        <v>Brief 6.10 - TEST ROUTINE PROJECTS</v>
       </c>
       <c r="C38" t="str">
         <v>All potential R&amp;D</v>
@@ -2423,7 +2434,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H38" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I38" t="str">
         <v/>
@@ -2455,22 +2466,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>pvD9Pq_OBEyaQLyk99YoEpcAHGIh</v>
+        <v>mAv25HuwpEau_c97lnuLm5cAP0P0</v>
       </c>
       <c r="B39" t="str">
-        <v>Brief 6.32 - IOT/MOBILE DEVICES PACK</v>
+        <v>Lead Acid Battery case</v>
       </c>
       <c r="C39" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D39" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E39" t="str">
-        <v>Medium</v>
+        <v>Urgent</v>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="G39" t="str">
         <v>Jack Murphy</v>
@@ -2479,10 +2490,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>23/09/2025</v>
       </c>
       <c r="J39" t="str">
-        <v/>
+        <v>03/10/2025</v>
       </c>
       <c r="K39" t="str">
         <v>false</v>
@@ -2497,42 +2508,45 @@
         <v/>
       </c>
       <c r="O39" t="str">
-        <v/>
+        <v>3/4</v>
       </c>
       <c r="P39" t="str">
-        <v/>
+        <v>BETA;First prototype;Hand project over to Maciej;Alpha</v>
       </c>
       <c r="Q39" t="str">
         <v/>
+      </c>
+      <c r="R39" t="str">
+        <v>This is a top priority</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>qxAmuVLesU2luN08B0i8YpcAPfzC</v>
+        <v>mKuZbSSpbkmnlrwa34wvGpcAO-R5</v>
       </c>
       <c r="B40" t="str">
-        <v>Brief 6.8 - HYBRID ENGINE INVESTIGATION</v>
+        <v>IM phase 2</v>
       </c>
       <c r="C40" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Research Phase</v>
       </c>
       <c r="D40" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E40" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F40" t="str">
-        <v/>
+        <v>Hamed Adefuwa</v>
       </c>
       <c r="G40" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H40" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>08/09/2025</v>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -2550,10 +2564,10 @@
         <v/>
       </c>
       <c r="O40" t="str">
-        <v/>
+        <v>0/2</v>
       </c>
       <c r="P40" t="str">
-        <v/>
+        <v>Electrical maintenance;Fluids troubleshooting</v>
       </c>
       <c r="Q40" t="str">
         <v/>
@@ -2561,13 +2575,13 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>tlbKUPPqXEypJ6EHCWVihJcAEUux</v>
+        <v>ojMCcsMsfE2rwZMZz9o_TJcAKIMo</v>
       </c>
       <c r="B41" t="str">
-        <v>Wind Tunnel - Gratnell tray updated</v>
+        <v>Brief 6.2 - ELECTRONIC ENGINEERING: E-BLOCKS 2 TECHNOLOGY UPDATE</v>
       </c>
       <c r="C41" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D41" t="str">
         <v>Not started</v>
@@ -2614,19 +2628,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>v8BTHtyLKU-bb6Pwww3ZUZcAG5xf</v>
+        <v>pvD9Pq_OBEyaQLyk99YoEpcAHGIh</v>
       </c>
       <c r="B42" t="str">
-        <v>MICRO CNC v2</v>
+        <v>Brief 6.32 - IOT/MOBILE DEVICES PACK</v>
       </c>
       <c r="C42" t="str">
-        <v>Research Phase</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D42" t="str">
         <v>Not started</v>
       </c>
       <c r="E42" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F42" t="str">
         <v/>
@@ -2667,10 +2681,10 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>wftDtTg_O06btXjrQlMMWZcANZTc</v>
+        <v>qxAmuVLesU2luN08B0i8YpcAPfzC</v>
       </c>
       <c r="B43" t="str">
-        <v>Brief 6.30 - WIND TURBINE GENERATOR</v>
+        <v>Brief 6.8 - HYBRID ENGINE INVESTIGATION</v>
       </c>
       <c r="C43" t="str">
         <v>All potential R&amp;D</v>
@@ -2720,13 +2734,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>ws9XepYKmUCGaUIsk0mwqZcAMTIe</v>
+        <v>tlbKUPPqXEypJ6EHCWVihJcAEUux</v>
       </c>
       <c r="B44" t="str">
-        <v>Brief 6.27 - VIBRATION MASS DAMPENER</v>
+        <v>Wind Tunnel - Gratnell tray updated</v>
       </c>
       <c r="C44" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D44" t="str">
         <v>Not started</v>
@@ -2741,7 +2755,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H44" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I44" t="str">
         <v/>
@@ -2773,19 +2787,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>wzxZt6TsGE6nPwwL8pI2v5cAOj9G</v>
+        <v>v8BTHtyLKU-bb6Pwww3ZUZcAG5xf</v>
       </c>
       <c r="B45" t="str">
-        <v>Brief 6.22 - HP2001 V2</v>
+        <v>MICRO CNC v2</v>
       </c>
       <c r="C45" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Research Phase</v>
       </c>
       <c r="D45" t="str">
         <v>Not started</v>
       </c>
       <c r="E45" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F45" t="str">
         <v/>
@@ -2826,10 +2840,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>xpWypIc2Vk2N2zfAGXcO-5cAE-gU</v>
+        <v>wftDtTg_O06btXjrQlMMWZcANZTc</v>
       </c>
       <c r="B46" t="str">
-        <v>Brief 6.14 - MATERIALS TESTER – UNIVERSAL TESTING MACHINE</v>
+        <v>Brief 6.30 - WIND TURBINE GENERATOR</v>
       </c>
       <c r="C46" t="str">
         <v>All potential R&amp;D</v>
@@ -2879,22 +2893,22 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ymv4q1HX9kyyyWG45fAYZJcAHlR1</v>
+        <v>ws9XepYKmUCGaUIsk0mwqZcAMTIe</v>
       </c>
       <c r="B47" t="str">
-        <v>IM- Maintenance of Closed Loop</v>
+        <v>Brief 6.27 - VIBRATION MASS DAMPENER</v>
       </c>
       <c r="C47" t="str">
-        <v>Production Handover Phase</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D47" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E47" t="str">
-        <v>Important</v>
+        <v>Medium</v>
       </c>
       <c r="F47" t="str">
-        <v>Hamed Adefuwa;Maciej Kedzierski</v>
+        <v/>
       </c>
       <c r="G47" t="str">
         <v>Jack Murphy</v>
@@ -2903,10 +2917,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I47" t="str">
-        <v>29/01/2024</v>
+        <v/>
       </c>
       <c r="J47" t="str">
-        <v>31/10/2025</v>
+        <v/>
       </c>
       <c r="K47" t="str">
         <v>false</v>
@@ -2921,10 +2935,10 @@
         <v/>
       </c>
       <c r="O47" t="str">
-        <v>1/5</v>
+        <v/>
       </c>
       <c r="P47" t="str">
-        <v>Wiring Diagram;Curriculum Review;Build instructions;BOM generated and handed over;Test routine</v>
+        <v/>
       </c>
       <c r="Q47" t="str">
         <v/>
@@ -2932,10 +2946,10 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>zKVMMZ3HPUyvulFIMKe_cZcAASp7</v>
+        <v>wzxZt6TsGE6nPwwL8pI2v5cAOj9G</v>
       </c>
       <c r="B48" t="str">
-        <v>Brief 6.9 - ROBOT ARM: PLC PROGRAMMING</v>
+        <v>Brief 6.22 - HP2001 V2</v>
       </c>
       <c r="C48" t="str">
         <v>All potential R&amp;D</v>
@@ -2985,34 +2999,34 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Nq_BHhIjCkWyzrH5Cedy0JcAF96z</v>
+        <v>xpWypIc2Vk2N2zfAGXcO-5cAE-gU</v>
       </c>
       <c r="B49" t="str">
-        <v>IO-Link</v>
+        <v>Brief 6.14 - MATERIALS TESTER – UNIVERSAL TESTING MACHINE</v>
       </c>
       <c r="C49" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D49" t="str">
         <v>Not started</v>
       </c>
       <c r="E49" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F49" t="str">
-        <v>Paul Connor;Hamed Adefuwa</v>
+        <v/>
       </c>
       <c r="G49" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H49" t="str">
-        <v>26/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I49" t="str">
-        <v>01/07/2025</v>
+        <v/>
       </c>
       <c r="J49" t="str">
-        <v>17/02/2026</v>
+        <v/>
       </c>
       <c r="K49" t="str">
         <v>false</v>
@@ -3027,10 +3041,10 @@
         <v/>
       </c>
       <c r="O49" t="str">
-        <v>0/1</v>
+        <v/>
       </c>
       <c r="P49" t="str">
-        <v xml:space="preserve">Define Learning Objectives </v>
+        <v/>
       </c>
       <c r="Q49" t="str">
         <v/>
@@ -3038,34 +3052,34 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>OJuB4cNrqU2ahuZsOmJjo5cAPg2I</v>
+        <v>ymv4q1HX9kyyyWG45fAYZJcAHlR1</v>
       </c>
       <c r="B50" t="str">
-        <v>Process Control Branding Plates</v>
+        <v>IM- Maintenance of Closed Loop</v>
       </c>
       <c r="C50" t="str">
-        <v>In Progress</v>
+        <v>Production Handover Phase</v>
       </c>
       <c r="D50" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E50" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F50" t="str">
-        <v>Valerii Pozdeev</v>
+        <v>Hamed Adefuwa;Maciej Kedzierski</v>
       </c>
       <c r="G50" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H50" t="str">
-        <v>04/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I50" t="str">
-        <v>22/09/2025</v>
+        <v>29/01/2024</v>
       </c>
       <c r="J50" t="str">
-        <v>10/10/2025</v>
+        <v>31/10/2025</v>
       </c>
       <c r="K50" t="str">
         <v>false</v>
@@ -3080,48 +3094,45 @@
         <v/>
       </c>
       <c r="O50" t="str">
-        <v>1/4</v>
+        <v>3/5</v>
       </c>
       <c r="P50" t="str">
-        <v>prototype made;fitted to product;bom changes;instructions update</v>
+        <v>Wiring Diagram;Curriculum Review;Build instructions;BOM generated and handed over;Test routine</v>
       </c>
       <c r="Q50" t="str">
         <v/>
-      </c>
-      <c r="R50" t="str">
-        <v>2 plates with engraves to be fitted across all process control</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>5y5l0fIjeE624LD42EA5mZcAD5gR</v>
+        <v>zKVMMZ3HPUyvulFIMKe_cZcAASp7</v>
       </c>
       <c r="B51" t="str">
-        <v>Structures branding plates</v>
+        <v>Brief 6.9 - ROBOT ARM: PLC PROGRAMMING</v>
       </c>
       <c r="C51" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D51" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E51" t="str">
         <v>Medium</v>
       </c>
       <c r="F51" t="str">
-        <v>Valerii Pozdeev</v>
+        <v/>
       </c>
       <c r="G51" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H51" t="str">
-        <v>04/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I51" t="str">
-        <v>22/09/2025</v>
+        <v/>
       </c>
       <c r="J51" t="str">
-        <v>10/10/2025</v>
+        <v/>
       </c>
       <c r="K51" t="str">
         <v>false</v>
@@ -3136,16 +3147,13 @@
         <v/>
       </c>
       <c r="O51" t="str">
-        <v>2/4</v>
+        <v/>
       </c>
       <c r="P51" t="str">
-        <v>bom changes;instructions updated;prototypes made;fittted to prototypes</v>
+        <v/>
       </c>
       <c r="Q51" t="str">
         <v/>
-      </c>
-      <c r="R51" t="str">
-        <v>structure branding plates to be pushed through to production</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3195,7 @@
         <v>Date of export</v>
       </c>
       <c r="B3" t="str">
-        <v>29/09/2025</v>
+        <v>01/10/2025</v>
       </c>
     </row>
   </sheetData>

--- a/R&D Project Management .xlsx
+++ b/R&D Project Management .xlsx
@@ -479,59 +479,178 @@
         <v>Description</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2">
       <c r="A2" t="str">
-        <v>1zxgl2YSZ0mMGiMooBzr5JcAHnY6</v>
+        <v>Nq_BHhIjCkWyzrH5Cedy0JcAF96z</v>
       </c>
       <c r="B2" t="str">
-        <v>Touch Screen/App development</v>
+        <v>IM - IO-Link</v>
       </c>
       <c r="C2" t="str">
-        <v>Research Phase</v>
+        <v>In Progress</v>
       </c>
       <c r="D2" t="str">
         <v>In progress</v>
       </c>
       <c r="E2" t="str">
+        <v>Low</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Paul Connor;Hamed Adefuwa;Maciej Kedzierski</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Jack Murphy</v>
+      </c>
+      <c r="H2" t="str">
+        <v>26/09/2025</v>
+      </c>
+      <c r="I2" t="str">
+        <v>01/07/2025</v>
+      </c>
+      <c r="J2" t="str">
+        <v>17/02/2026</v>
+      </c>
+      <c r="K2" t="str">
+        <v>false</v>
+      </c>
+      <c r="L2" t="str">
+        <v>false</v>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v>0/1</v>
+      </c>
+      <c r="P2" t="str">
+        <v xml:space="preserve">Define Learning Objectives </v>
+      </c>
+      <c r="Q2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>73oN9Dk5cUyfqd_UU_fOZZcAFtyT</v>
+      </c>
+      <c r="B3" t="str">
+        <v>HP2001 Doc Updates</v>
+      </c>
+      <c r="C3" t="str">
+        <v>In Progress</v>
+      </c>
+      <c r="D3" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Low</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Muhammad Abdullah;Hamed Adefuwa</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Hamed Adefuwa</v>
+      </c>
+      <c r="H3" t="str">
+        <v>18/09/2025</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>01/02/2025</v>
+      </c>
+      <c r="K3" t="str">
+        <v>false</v>
+      </c>
+      <c r="L3" t="str">
+        <v>true</v>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Notes from John:_x000d_
+_x000d_
+HP2001 has changed. This necessitates some documentation changes. HP2001 is used in conjunction with several products:_x000d_
+_x000d_
+·         LK2410 Motors, generators and charging systems_x000d_
+_x000d_
+·         LK5281 High Voltage and Batteries_x000d_
+_x000d_
+·         LK8170 Fault finding_x000d_
+_x000d_
+What we need to do is identify all the places HP2001 is used and then modify the worksheets accordingly.</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>1zxgl2YSZ0mMGiMooBzr5JcAHnY6</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Touch Screen/App development</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Research Phase</v>
+      </c>
+      <c r="D4" t="str">
+        <v>In progress</v>
+      </c>
+      <c r="E4" t="str">
         <v>Medium</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F4" t="str">
         <v>Muhammad Abdullah;Paul Connor;Ben Rowland;Hamed Adefuwa</v>
       </c>
-      <c r="G2" t="str">
-        <v>Jack Murphy</v>
-      </c>
-      <c r="H2" t="str">
-        <v>05/09/2025</v>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v>false</v>
-      </c>
-      <c r="L2" t="str">
-        <v>false</v>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <v>1/5</v>
-      </c>
-      <c r="P2" t="str">
+      <c r="G4" t="str">
+        <v>Jack Murphy</v>
+      </c>
+      <c r="H4" t="str">
+        <v>05/09/2025</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <v>false</v>
+      </c>
+      <c r="L4" t="str">
+        <v>false</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <v>3/5</v>
+      </c>
+      <c r="P4" t="str">
         <v xml:space="preserve">Move drawing routines to sub macros to save on ROM usage?;Add user defined char spacing and space width to binary font support ;Improve Ellipse border drawing;Circular Slider?;review meeting on 6th oct </v>
       </c>
-      <c r="Q2" t="str">
-        <v/>
-      </c>
-      <c r="R2" t="str" xml:space="preserve">
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str" xml:space="preserve">
         <v xml:space="preserve">project to denote all the time and research going into the touch screen apps and technology ideas and solutions_x000d_
 ben-wsywyg flowcode solution development_x000d_
 Abdullah - touchgfx and ST_x000d_
@@ -539,127 +658,21 @@
 Paul - wsyswyg implementation on a project (PA Hilton)</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>3DhTtZAdPU-Roh2_TIXkZZcAOuzI</v>
-      </c>
-      <c r="B3" t="str">
-        <v>E-BLOCKS 3</v>
-      </c>
-      <c r="C3" t="str">
-        <v>In Progress</v>
-      </c>
-      <c r="D3" t="str">
-        <v>In progress</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Important</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Ben Rowland;Jack Murphy</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Jack Murphy</v>
-      </c>
-      <c r="H3" t="str">
-        <v>05/09/2025</v>
-      </c>
-      <c r="I3" t="str">
-        <v>01/08/2025</v>
-      </c>
-      <c r="J3" t="str">
-        <v>01/01/2026</v>
-      </c>
-      <c r="K3" t="str">
-        <v>false</v>
-      </c>
-      <c r="L3" t="str">
-        <v>false</v>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
-      <c r="O3" t="str">
-        <v>0/4</v>
-      </c>
-      <c r="P3" t="str">
-        <v>Improve PIC bootloader - current one has problems, MCHP version requires python;Modify the CapTouchDisplay board to have better power distribution when WIFI active;Complete John's GLCD demo project file;Get BOMs to Jayne for production boards</v>
-      </c>
-      <c r="Q3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>4M4Ti10--UicNjx8h3SNvpcABgNx</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Brief 6.13 - Smart Factory 2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Research Phase</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Not started</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Low</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Valerii Pozdeev;Hamed Adefuwa</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Jack Murphy</v>
-      </c>
-      <c r="H4" t="str">
-        <v>05/09/2025</v>
-      </c>
-      <c r="I4" t="str">
-        <v>06/10/2025</v>
-      </c>
-      <c r="J4" t="str">
-        <v>24/04/2026</v>
-      </c>
-      <c r="K4" t="str">
-        <v>false</v>
-      </c>
-      <c r="L4" t="str">
-        <v>false</v>
-      </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <v>0/3</v>
-      </c>
-      <c r="P4" t="str">
-        <v>Get Robot Arm From Stores (Full Customer Experience);Get Smart Factory From Stores (Full Customer Experience);Run Through Current Curriculum (Full Customer Experience)</v>
-      </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>4OEma_FwpU2xfq3k2cfP5ZcAGFDl</v>
+        <v>v8BTHtyLKU-bb6Pwww3ZUZcAG5xf</v>
       </c>
       <c r="B5" t="str">
-        <v>Brief 6.28 - FLIGHT THEORY</v>
+        <v>MICRO CNC v2</v>
       </c>
       <c r="C5" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Research Phase</v>
       </c>
       <c r="D5" t="str">
         <v>Not started</v>
       </c>
       <c r="E5" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -700,13 +713,13 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>4Rt0ODhUv0a-wqkvh4vYtJcAKHfc</v>
+        <v>3DhTtZAdPU-Roh2_TIXkZZcAOuzI</v>
       </c>
       <c r="B6" t="str">
-        <v>IM- Logo! PLC</v>
+        <v>E-BLOCKS 3</v>
       </c>
       <c r="C6" t="str">
-        <v>Production Handover Phase</v>
+        <v>In Progress</v>
       </c>
       <c r="D6" t="str">
         <v>In progress</v>
@@ -715,7 +728,7 @@
         <v>Important</v>
       </c>
       <c r="F6" t="str">
-        <v>Hamed Adefuwa;Maciej Kedzierski</v>
+        <v>Ben Rowland;Jack Murphy</v>
       </c>
       <c r="G6" t="str">
         <v>Jack Murphy</v>
@@ -724,10 +737,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I6" t="str">
-        <v>29/07/2024</v>
+        <v>01/08/2025</v>
       </c>
       <c r="J6" t="str">
-        <v>31/10/2025</v>
+        <v>01/01/2026</v>
       </c>
       <c r="K6" t="str">
         <v>false</v>
@@ -742,10 +755,10 @@
         <v/>
       </c>
       <c r="O6" t="str">
-        <v>4/5</v>
+        <v>0/4</v>
       </c>
       <c r="P6" t="str">
-        <v>Wiring Diagram;Build instructions;BOM generated and handed over;Test routine;Curriculum Review</v>
+        <v>Improve PIC bootloader - current one has problems, MCHP version requires python;Modify the CapTouchDisplay board to have better power distribution when WIFI active;Complete John's GLCD demo project file;Get BOMs to Jayne for production boards</v>
       </c>
       <c r="Q6" t="str">
         <v/>
@@ -753,40 +766,40 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>4jzs484rA0C8U2O-n-eLFpcAJH_B</v>
+        <v>R5djo4GRpUuySllfXlk2VpcABdmR</v>
       </c>
       <c r="B7" t="str">
-        <v>Brief 6.26 - Robot Arm V3</v>
+        <v>Brief 6.33 - PA HILTON DATA LOGGER</v>
       </c>
       <c r="C7" t="str">
-        <v>Research Phase</v>
+        <v>In Progress</v>
       </c>
       <c r="D7" t="str">
         <v>Not started</v>
       </c>
       <c r="E7" t="str">
-        <v>Low</v>
+        <v>Important</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>Paul Connor;Jack Murphy</v>
       </c>
       <c r="G7" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H7" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I7" t="str">
-        <v>15/08/2025</v>
+        <v>01/08/2025</v>
       </c>
       <c r="J7" t="str">
-        <v>14/08/2026</v>
+        <v>03/10/2025</v>
       </c>
       <c r="K7" t="str">
         <v>false</v>
       </c>
       <c r="L7" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M7" t="str">
         <v/>
@@ -806,37 +819,37 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>5UmyMdjJPEO5_fMtQyP91pcAHGDW</v>
+        <v>pvD9Pq_OBEyaQLyk99YoEpcAHGIh</v>
       </c>
       <c r="B8" t="str">
-        <v>IM- PLC fundamentals</v>
+        <v>Brief 6.32 - IOT/MOBILE DEVICES PACK</v>
       </c>
       <c r="C8" t="str">
-        <v>Production Handover Phase</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D8" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E8" t="str">
-        <v>Important</v>
+        <v>Medium</v>
       </c>
       <c r="F8" t="str">
-        <v>Hamed Adefuwa;Maciej Kedzierski</v>
+        <v/>
       </c>
       <c r="G8" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H8" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I8" t="str">
-        <v>29/07/2024</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>31/10/2025</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="L8" t="str">
         <v>false</v>
@@ -848,10 +861,10 @@
         <v/>
       </c>
       <c r="O8" t="str">
-        <v>3/5</v>
+        <v/>
       </c>
       <c r="P8" t="str">
-        <v>Wiring Diagram;Build instructions;BOM generated and handed over;Test routine;Curriculum Review</v>
+        <v/>
       </c>
       <c r="Q8" t="str">
         <v/>
@@ -859,10 +872,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>5e2eBS9hYUGL0U5y5-wzb5cAHwTt</v>
+        <v>JhEytzVabUap1r5I5mX4sJcADaso</v>
       </c>
       <c r="B9" t="str">
-        <v>Brief 6.18 - LOCKTRONICS PACKS UPDATE</v>
+        <v>Brief 6.31 - DRONE MOTOR TESTER</v>
       </c>
       <c r="C9" t="str">
         <v>All potential R&amp;D</v>
@@ -912,34 +925,34 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>5y5l0fIjeE624LD42EA5mZcAD5gR</v>
+        <v>wftDtTg_O06btXjrQlMMWZcANZTc</v>
       </c>
       <c r="B10" t="str">
-        <v>Structures branding plates</v>
+        <v>Brief 6.30 - WIND TURBINE GENERATOR</v>
       </c>
       <c r="C10" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D10" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E10" t="str">
         <v>Medium</v>
       </c>
       <c r="F10" t="str">
-        <v>Valerii Pozdeev</v>
+        <v/>
       </c>
       <c r="G10" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H10" t="str">
-        <v>04/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I10" t="str">
-        <v>22/09/2025</v>
+        <v/>
       </c>
       <c r="J10" t="str">
-        <v>10/10/2025</v>
+        <v/>
       </c>
       <c r="K10" t="str">
         <v>false</v>
@@ -954,54 +967,51 @@
         <v/>
       </c>
       <c r="O10" t="str">
-        <v>2/4</v>
+        <v/>
       </c>
       <c r="P10" t="str">
-        <v>bom changes;instructions updated;prototypes made;fittted to prototypes</v>
+        <v/>
       </c>
       <c r="Q10" t="str">
         <v/>
       </c>
-      <c r="R10" t="str">
-        <v>structure branding plates to be pushed through to production</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
+    </row>
+    <row r="11">
       <c r="A11" t="str">
-        <v>73oN9Dk5cUyfqd_UU_fOZZcAFtyT</v>
+        <v>OO1uWenPBESXEgCd-WRt2ZcAGGn-</v>
       </c>
       <c r="B11" t="str">
-        <v>HP2001 Doc Updates</v>
+        <v>Brief 6.29 - GAS TURBINES</v>
       </c>
       <c r="C11" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D11" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E11" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F11" t="str">
-        <v>Hamed Adefuwa;Muhammad Abdullah</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>Hamed Adefuwa</v>
+        <v>Jack Murphy</v>
       </c>
       <c r="H11" t="str">
-        <v>18/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I11" t="str">
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>01/02/2025</v>
+        <v/>
       </c>
       <c r="K11" t="str">
         <v>false</v>
       </c>
       <c r="L11" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M11" t="str">
         <v/>
@@ -1017,34 +1027,26 @@
       </c>
       <c r="Q11" t="str">
         <v/>
-      </c>
-      <c r="R11" t="str" xml:space="preserve">
-        <v xml:space="preserve">Notes from John:
-HP2001 has changed. This necessitates some documentation changes. HP2001 is used in conjunction with several products:
-·         LK2410 Motors, generators and charging systems
-·         LK5281 High Voltage and Batteries
-·         LK8170 Fault finding
-What we need to do is identify all the places HP2001 is used and then modify the worksheets accordingly.</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>BACudhentEmElbKe8HUZq5cAJ0nP</v>
+        <v>4OEma_FwpU2xfq3k2cfP5ZcAGFDl</v>
       </c>
       <c r="B12" t="str">
-        <v>Thermo - Heat Exchanger</v>
+        <v>Brief 6.28 - FLIGHT THEORY</v>
       </c>
       <c r="C12" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D12" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E12" t="str">
-        <v>Urgent</v>
+        <v>Medium</v>
       </c>
       <c r="F12" t="str">
-        <v>Paul Connor;Jack Murphy</v>
+        <v/>
       </c>
       <c r="G12" t="str">
         <v>Jack Murphy</v>
@@ -1053,10 +1055,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I12" t="str">
-        <v>01/01/2021</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>02/12/2025</v>
+        <v/>
       </c>
       <c r="K12" t="str">
         <v>false</v>
@@ -1071,24 +1073,21 @@
         <v/>
       </c>
       <c r="O12" t="str">
-        <v>1/3</v>
+        <v/>
       </c>
       <c r="P12" t="str">
-        <v>Test software UI;Test shell &amp; tube;Test plate exchanger</v>
+        <v/>
       </c>
       <c r="Q12" t="str">
         <v/>
-      </c>
-      <c r="R12" t="str">
-        <v>This project is top priority in the team - lots of testing happening.</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>DQsTzUJO9k-9g_d2mk8aXJcAJF0C</v>
+        <v>ws9XepYKmUCGaUIsk0mwqZcAMTIe</v>
       </c>
       <c r="B13" t="str">
-        <v>Brief 6.5 - 6.5	ELECTRICAL ENGINEERING: SMART GRID TECHNOLOGY</v>
+        <v>Brief 6.27 - VIBRATION MASS DAMPENER</v>
       </c>
       <c r="C13" t="str">
         <v>All potential R&amp;D</v>
@@ -1138,10 +1137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>FImdJzhHtkS1tk-WX2nnU5cADK9r</v>
+        <v>dbSmE-Kkt06yA2W7GRqLgJcAMD-Z</v>
       </c>
       <c r="B14" t="str">
-        <v>Brief 6.17 - AUTOMATICS CONTROL FIRMWARE FOR MIAC NXT</v>
+        <v>Brief 6.25 - FLUIDS PLUS</v>
       </c>
       <c r="C14" t="str">
         <v>All potential R&amp;D</v>
@@ -1191,22 +1190,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>GZMzSLWbmEKZEIEJJQGsfJcACscH</v>
+        <v>H0z1ZzTC9kGIXt1nc6O6hZcANI6D</v>
       </c>
       <c r="B15" t="str">
-        <v>Thermo - Stirling Engine</v>
+        <v>Brief 6.24 - MATERIAL TESTING</v>
       </c>
       <c r="C15" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D15" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E15" t="str">
-        <v>Urgent</v>
+        <v>Medium</v>
       </c>
       <c r="F15" t="str">
-        <v>Muhammad Abdullah;Maciej Kedzierski</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <v>Jack Murphy</v>
@@ -1215,16 +1214,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I15" t="str">
-        <v>01/01/2021</v>
+        <v/>
       </c>
       <c r="J15" t="str">
-        <v>04/09/2025</v>
+        <v/>
       </c>
       <c r="K15" t="str">
         <v>false</v>
       </c>
       <c r="L15" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M15" t="str">
         <v/>
@@ -1244,10 +1243,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>H0z1ZzTC9kGIXt1nc6O6hZcANI6D</v>
+        <v>wzxZt6TsGE6nPwwL8pI2v5cAOj9G</v>
       </c>
       <c r="B16" t="str">
-        <v>Brief 6.24 - MATERIAL TESTING</v>
+        <v>Brief 6.22 - HP2001 V2</v>
       </c>
       <c r="C16" t="str">
         <v>All potential R&amp;D</v>
@@ -1297,10 +1296,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>IMe-aTJf202HR6inv9_WD5cAGdtF</v>
+        <v>c7IXJRfWR0CSjNLmqAAMQJcAHWi0</v>
       </c>
       <c r="B17" t="str">
-        <v>Brief 6.6 - 6.6	MANUFACTURING ENGINEERING: HYDRAULICS</v>
+        <v>Brief 6.21 - 6.21	FLUIDS CONTROLLER TOUCH SCREEN AND PCB UPDATE</v>
       </c>
       <c r="C17" t="str">
         <v>All potential R&amp;D</v>
@@ -1350,10 +1349,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>JhEytzVabUap1r5I5mX4sJcADaso</v>
+        <v>NsY6AZ2Uq0mgMb2J7Pz5tpcABDDU</v>
       </c>
       <c r="B18" t="str">
-        <v>Brief 6.31 - DRONE MOTOR TESTER</v>
+        <v>Brief 6.20 - PROCESS CONTROL TOUCH SCREEN AND PCB UPDATE</v>
       </c>
       <c r="C18" t="str">
         <v>All potential R&amp;D</v>
@@ -1403,10 +1402,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>M8KSVEgENUydEcfHESEVXJcABFSd</v>
+        <v>Q-m3hBhnlk-WqYGP8YkJvpcAIuoz</v>
       </c>
       <c r="B19" t="str">
-        <v xml:space="preserve">Brief 6.1 - FLOWCODE: DIGITAL COMMUNICATIONS COURSE FOR FLOWCODE </v>
+        <v>Brief 6.19 - ALLEN BRADLEY</v>
       </c>
       <c r="C19" t="str">
         <v>All potential R&amp;D</v>
@@ -1415,7 +1414,7 @@
         <v>Not started</v>
       </c>
       <c r="E19" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F19" t="str">
         <v/>
@@ -1424,7 +1423,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H19" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1456,34 +1455,34 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Nq_BHhIjCkWyzrH5Cedy0JcAF96z</v>
+        <v>5e2eBS9hYUGL0U5y5-wzb5cAHwTt</v>
       </c>
       <c r="B20" t="str">
-        <v>IO-Link</v>
+        <v>Brief 6.18 - LOCKTRONICS PACKS UPDATE</v>
       </c>
       <c r="C20" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D20" t="str">
         <v>Not started</v>
       </c>
       <c r="E20" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F20" t="str">
-        <v>Paul Connor;Hamed Adefuwa</v>
+        <v/>
       </c>
       <c r="G20" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H20" t="str">
-        <v>26/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I20" t="str">
-        <v>01/07/2025</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v>17/02/2026</v>
+        <v/>
       </c>
       <c r="K20" t="str">
         <v>false</v>
@@ -1498,10 +1497,10 @@
         <v/>
       </c>
       <c r="O20" t="str">
-        <v>0/1</v>
+        <v/>
       </c>
       <c r="P20" t="str">
-        <v xml:space="preserve">Define Learning Objectives </v>
+        <v/>
       </c>
       <c r="Q20" t="str">
         <v/>
@@ -1509,10 +1508,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>NsY6AZ2Uq0mgMb2J7Pz5tpcABDDU</v>
+        <v>FImdJzhHtkS1tk-WX2nnU5cADK9r</v>
       </c>
       <c r="B21" t="str">
-        <v>Brief 6.20 - PROCESS CONTROL TOUCH SCREEN AND PCB UPDATE</v>
+        <v>Brief 6.17 - AUTOMATICS CONTROL FIRMWARE FOR MIAC NXT</v>
       </c>
       <c r="C21" t="str">
         <v>All potential R&amp;D</v>
@@ -1562,13 +1561,13 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>OJuB4cNrqU2ahuZsOmJjo5cAPg2I</v>
+        <v>fMjkr4Rf9kOk7zGvcATDkZcAFLr2</v>
       </c>
       <c r="B22" t="str">
-        <v>Process Control Branding Plates</v>
+        <v>Brief 6.16 - OPERATIONAL AMPLIFIERS UPDATE</v>
       </c>
       <c r="C22" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D22" t="str">
         <v>Not started</v>
@@ -1577,19 +1576,19 @@
         <v>Medium</v>
       </c>
       <c r="F22" t="str">
-        <v>Valerii Pozdeev</v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H22" t="str">
-        <v>04/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I22" t="str">
-        <v>22/09/2025</v>
+        <v/>
       </c>
       <c r="J22" t="str">
-        <v>10/10/2025</v>
+        <v/>
       </c>
       <c r="K22" t="str">
         <v>false</v>
@@ -1604,36 +1603,33 @@
         <v/>
       </c>
       <c r="O22" t="str">
-        <v>1/4</v>
+        <v/>
       </c>
       <c r="P22" t="str">
-        <v>prototype made;fitted to product;bom changes;instructions update</v>
+        <v/>
       </c>
       <c r="Q22" t="str">
         <v/>
-      </c>
-      <c r="R22" t="str">
-        <v>2 plates with engraves to be fitted across all process control</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>OO1uWenPBESXEgCd-WRt2ZcAGGn-</v>
+        <v>4Rt0ODhUv0a-wqkvh4vYtJcAKHfc</v>
       </c>
       <c r="B23" t="str">
-        <v>Brief 6.29 - GAS TURBINES</v>
+        <v>IM- Logo! PLC</v>
       </c>
       <c r="C23" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Handover Phase</v>
       </c>
       <c r="D23" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E23" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v>Hamed Adefuwa;Maciej Kedzierski</v>
       </c>
       <c r="G23" t="str">
         <v>Jack Murphy</v>
@@ -1642,10 +1638,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>29/07/2024</v>
       </c>
       <c r="J23" t="str">
-        <v/>
+        <v>31/10/2025</v>
       </c>
       <c r="K23" t="str">
         <v>false</v>
@@ -1660,10 +1656,10 @@
         <v/>
       </c>
       <c r="O23" t="str">
-        <v/>
+        <v>4/5</v>
       </c>
       <c r="P23" t="str">
-        <v/>
+        <v>Wiring Diagram;Build instructions;BOM generated and handed over;Test routine;Curriculum Review</v>
       </c>
       <c r="Q23" t="str">
         <v/>
@@ -1671,13 +1667,13 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>OsJ1HO7BxEiMXSaA9dwGe5cAHygc</v>
+        <v>ymv4q1HX9kyyyWG45fAYZJcAHlR1</v>
       </c>
       <c r="B24" t="str">
-        <v>Wind Tunnel 9in1 Test Jig</v>
+        <v>IM- Maintenance of Closed Loop</v>
       </c>
       <c r="C24" t="str">
-        <v>Production Based Projects</v>
+        <v>Production Handover Phase</v>
       </c>
       <c r="D24" t="str">
         <v>In progress</v>
@@ -1686,7 +1682,7 @@
         <v>Important</v>
       </c>
       <c r="F24" t="str">
-        <v>Muhammad Abdullah;Valerii Pozdeev</v>
+        <v>Hamed Adefuwa;Maciej Kedzierski</v>
       </c>
       <c r="G24" t="str">
         <v>Jack Murphy</v>
@@ -1695,10 +1691,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I24" t="str">
-        <v>26/09/2025</v>
+        <v>29/01/2024</v>
       </c>
       <c r="J24" t="str">
-        <v/>
+        <v>31/10/2025</v>
       </c>
       <c r="K24" t="str">
         <v>false</v>
@@ -1713,10 +1709,10 @@
         <v/>
       </c>
       <c r="O24" t="str">
-        <v/>
+        <v>3/5</v>
       </c>
       <c r="P24" t="str">
-        <v/>
+        <v>Wiring Diagram;Curriculum Review;Build instructions;BOM generated and handed over;Test routine</v>
       </c>
       <c r="Q24" t="str">
         <v/>
@@ -1724,22 +1720,22 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>PAzpS31YjUiR5TTaVxG3SJcAGgBx</v>
+        <v>GZMzSLWbmEKZEIEJJQGsfJcACscH</v>
       </c>
       <c r="B25" t="str">
-        <v>Brief 6.3 - ELECTRONIC ENGINEERING: MODERN ELECTRONIC TEST AND MEASUREMENT</v>
+        <v>Thermo - Stirling Engine</v>
       </c>
       <c r="C25" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D25" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E25" t="str">
-        <v>Medium</v>
+        <v>Urgent</v>
       </c>
       <c r="F25" t="str">
-        <v/>
+        <v>Muhammad Abdullah;Maciej Kedzierski</v>
       </c>
       <c r="G25" t="str">
         <v>Jack Murphy</v>
@@ -1748,16 +1744,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I25" t="str">
-        <v/>
+        <v>01/01/2021</v>
       </c>
       <c r="J25" t="str">
-        <v/>
+        <v>04/09/2025</v>
       </c>
       <c r="K25" t="str">
         <v>false</v>
       </c>
       <c r="L25" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M25" t="str">
         <v/>
@@ -1777,22 +1773,22 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>PJGZwd4qx0SmyUwcqEm92ZcALvzQ</v>
+        <v>k3KjG1e6kEeOxodqO_EEhJcAGR6x</v>
       </c>
       <c r="B26" t="str">
-        <v>EM Test Jig</v>
+        <v>Thermo - Heat Conduction</v>
       </c>
       <c r="C26" t="str">
-        <v>Production Based Projects</v>
+        <v>In Progress</v>
       </c>
       <c r="D26" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E26" t="str">
-        <v>Important</v>
+        <v>Urgent</v>
       </c>
       <c r="F26" t="str">
-        <v>Ben Rowland;Maciej Kedzierski</v>
+        <v>Muhammad Abdullah</v>
       </c>
       <c r="G26" t="str">
         <v>Jack Murphy</v>
@@ -1801,16 +1797,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>01/01/2022</v>
       </c>
       <c r="J26" t="str">
-        <v/>
+        <v>21/08/2025</v>
       </c>
       <c r="K26" t="str">
         <v>false</v>
       </c>
       <c r="L26" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="M26" t="str">
         <v/>
@@ -1819,10 +1815,10 @@
         <v/>
       </c>
       <c r="O26" t="str">
-        <v>1/4</v>
+        <v/>
       </c>
       <c r="P26" t="str">
-        <v>Make Jig for Driver board to make it easier to quick connect;Make MDF jig;Hand over to production;Obtain production batch of boards</v>
+        <v/>
       </c>
       <c r="Q26" t="str">
         <v/>
@@ -1830,22 +1826,22 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Q-m3hBhnlk-WqYGP8YkJvpcAIuoz</v>
+        <v>BACudhentEmElbKe8HUZq5cAJ0nP</v>
       </c>
       <c r="B27" t="str">
-        <v>Brief 6.19 - ALLEN BRADLEY</v>
+        <v>Thermo - Heat Exchanger</v>
       </c>
       <c r="C27" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D27" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E27" t="str">
-        <v>Medium</v>
+        <v>Urgent</v>
       </c>
       <c r="F27" t="str">
-        <v/>
+        <v>Paul Connor;Jack Murphy</v>
       </c>
       <c r="G27" t="str">
         <v>Jack Murphy</v>
@@ -1854,10 +1850,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>01/01/2021</v>
       </c>
       <c r="J27" t="str">
-        <v/>
+        <v>02/12/2025</v>
       </c>
       <c r="K27" t="str">
         <v>false</v>
@@ -1872,33 +1868,36 @@
         <v/>
       </c>
       <c r="O27" t="str">
-        <v/>
+        <v>1/3</v>
       </c>
       <c r="P27" t="str">
-        <v/>
+        <v>Test software UI;Test shell &amp; tube;Test plate exchanger</v>
       </c>
       <c r="Q27" t="str">
         <v/>
+      </c>
+      <c r="R27" t="str">
+        <v>This project is top priority in the team - lots of testing happening.</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>R5djo4GRpUuySllfXlk2VpcABdmR</v>
+        <v>OsJ1HO7BxEiMXSaA9dwGe5cAHygc</v>
       </c>
       <c r="B28" t="str">
-        <v>Brief 6.33 - PA HILTON DATA LOGGER</v>
+        <v>Wind Tunnel 9in1 Test Jig</v>
       </c>
       <c r="C28" t="str">
-        <v>In Progress</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D28" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E28" t="str">
         <v>Important</v>
       </c>
       <c r="F28" t="str">
-        <v>Paul Connor;Jack Murphy</v>
+        <v>Muhammad Abdullah;Valerii Pozdeev</v>
       </c>
       <c r="G28" t="str">
         <v>Jack Murphy</v>
@@ -1907,10 +1906,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I28" t="str">
-        <v>01/08/2025</v>
+        <v>26/09/2025</v>
       </c>
       <c r="J28" t="str">
-        <v>03/10/2025</v>
+        <v>17/10/2025</v>
       </c>
       <c r="K28" t="str">
         <v>false</v>
@@ -1925,10 +1924,10 @@
         <v/>
       </c>
       <c r="O28" t="str">
-        <v/>
+        <v>2/7</v>
       </c>
       <c r="P28" t="str">
-        <v/>
+        <v>3D print;Testing;Assembling;Design;Order parts;Refine;Sign off</v>
       </c>
       <c r="Q28" t="str">
         <v/>
@@ -1936,13 +1935,13 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>TTq9W8owZUOuoltQHmW6Y5cAE3Kz</v>
+        <v>YcdO1B_YCU-lm6pqE2ec7ZcADgNx</v>
       </c>
       <c r="B29" t="str">
-        <v>Metal plates  for gutted on forklift</v>
+        <v>Brief 6.15 - NEW CONTROL APPLICATIONS</v>
       </c>
       <c r="C29" t="str">
-        <v>In House projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D29" t="str">
         <v>Not started</v>
@@ -1989,16 +1988,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>U0i4wOBB5Ueu9KrPSDGfn5cAPVh5</v>
+        <v>xpWypIc2Vk2N2zfAGXcO-5cAE-gU</v>
       </c>
       <c r="B30" t="str">
-        <v>3 Phase Test Jig</v>
+        <v>Brief 6.14 - MATERIALS TESTER – UNIVERSAL TESTING MACHINE</v>
       </c>
       <c r="C30" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D30" t="str">
-        <v>Completed</v>
+        <v>Not started</v>
       </c>
       <c r="E30" t="str">
         <v>Medium</v>
@@ -2025,10 +2024,10 @@
         <v>false</v>
       </c>
       <c r="M30" t="str">
-        <v>17/09/2025</v>
+        <v/>
       </c>
       <c r="N30" t="str">
-        <v>Jack Murphy</v>
+        <v/>
       </c>
       <c r="O30" t="str">
         <v/>
@@ -2042,22 +2041,22 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ww9O2SQRvEypD0pDoItLrZcANcOo</v>
+        <v>4M4Ti10--UicNjx8h3SNvpcABgNx</v>
       </c>
       <c r="B31" t="str">
-        <v>Brief 6.12 - HVAC</v>
+        <v>Brief 6.13 - Smart Factory 2</v>
       </c>
       <c r="C31" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Research Phase</v>
       </c>
       <c r="D31" t="str">
         <v>Not started</v>
       </c>
       <c r="E31" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F31" t="str">
-        <v/>
+        <v>Valerii Pozdeev;Hamed Adefuwa</v>
       </c>
       <c r="G31" t="str">
         <v>Jack Murphy</v>
@@ -2066,10 +2065,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>06/10/2025</v>
       </c>
       <c r="J31" t="str">
-        <v/>
+        <v>24/04/2026</v>
       </c>
       <c r="K31" t="str">
         <v>false</v>
@@ -2084,10 +2083,10 @@
         <v/>
       </c>
       <c r="O31" t="str">
-        <v/>
+        <v>0/3</v>
       </c>
       <c r="P31" t="str">
-        <v/>
+        <v>Get Robot Arm From Stores (Full Customer Experience);Get Smart Factory From Stores (Full Customer Experience);Run Through Current Curriculum (Full Customer Experience)</v>
       </c>
       <c r="Q31" t="str">
         <v/>
@@ -2095,10 +2094,10 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>YcdO1B_YCU-lm6pqE2ec7ZcADgNx</v>
+        <v>Ww9O2SQRvEypD0pDoItLrZcANcOo</v>
       </c>
       <c r="B32" t="str">
-        <v>Brief 6.15 - NEW CONTROL APPLICATIONS</v>
+        <v>Brief 6.12 - HVAC</v>
       </c>
       <c r="C32" t="str">
         <v>All potential R&amp;D</v>
@@ -2148,10 +2147,10 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>c7IXJRfWR0CSjNLmqAAMQJcAHWi0</v>
+        <v>kuO0ruJa0EKAuKkcgkll35cAF1LC</v>
       </c>
       <c r="B33" t="str">
-        <v>Brief 6.21 - 6.21	FLUIDS CONTROLLER TOUCH SCREEN AND PCB UPDATE</v>
+        <v>Brief 6.10 - TEST ROUTINE PROJECTS</v>
       </c>
       <c r="C33" t="str">
         <v>All potential R&amp;D</v>
@@ -2201,10 +2200,10 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>dbSmE-Kkt06yA2W7GRqLgJcAMD-Z</v>
+        <v>zKVMMZ3HPUyvulFIMKe_cZcAASp7</v>
       </c>
       <c r="B34" t="str">
-        <v>Brief 6.25 - FLUIDS PLUS</v>
+        <v>Brief 6.9 - ROBOT ARM: PLC PROGRAMMING</v>
       </c>
       <c r="C34" t="str">
         <v>All potential R&amp;D</v>
@@ -2254,10 +2253,10 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>fMjkr4Rf9kOk7zGvcATDkZcAFLr2</v>
+        <v>qxAmuVLesU2luN08B0i8YpcAPfzC</v>
       </c>
       <c r="B35" t="str">
-        <v>Brief 6.16 - OPERATIONAL AMPLIFIERS UPDATE</v>
+        <v>Brief 6.8 - HYBRID ENGINE INVESTIGATION</v>
       </c>
       <c r="C35" t="str">
         <v>All potential R&amp;D</v>
@@ -2307,22 +2306,22 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>k3KjG1e6kEeOxodqO_EEhJcAGR6x</v>
+        <v>IMe-aTJf202HR6inv9_WD5cAGdtF</v>
       </c>
       <c r="B36" t="str">
-        <v>Thermo - Heat Conduction</v>
+        <v>Brief 6.6 - 6.6	MANUFACTURING ENGINEERING: HYDRAULICS</v>
       </c>
       <c r="C36" t="str">
-        <v>In Progress</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D36" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E36" t="str">
-        <v>Urgent</v>
+        <v>Medium</v>
       </c>
       <c r="F36" t="str">
-        <v>Muhammad Abdullah</v>
+        <v/>
       </c>
       <c r="G36" t="str">
         <v>Jack Murphy</v>
@@ -2331,16 +2330,16 @@
         <v>05/09/2025</v>
       </c>
       <c r="I36" t="str">
-        <v>01/01/2022</v>
+        <v/>
       </c>
       <c r="J36" t="str">
-        <v>21/08/2025</v>
+        <v/>
       </c>
       <c r="K36" t="str">
         <v>false</v>
       </c>
       <c r="L36" t="str">
-        <v>true</v>
+        <v>false</v>
       </c>
       <c r="M36" t="str">
         <v/>
@@ -2360,10 +2359,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>ksflPH0KxkCE0nFRwqzr75cAKueW</v>
+        <v>DQsTzUJO9k-9g_d2mk8aXJcAJF0C</v>
       </c>
       <c r="B37" t="str">
-        <v>Brief 6.4 - ENGINEERING MEASUREMENT, TEST AND CONTROL</v>
+        <v>Brief 6.5 - 6.5	ELECTRICAL ENGINEERING: SMART GRID TECHNOLOGY</v>
       </c>
       <c r="C37" t="str">
         <v>All potential R&amp;D</v>
@@ -2413,10 +2412,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>kuO0ruJa0EKAuKkcgkll35cAF1LC</v>
+        <v>ksflPH0KxkCE0nFRwqzr75cAKueW</v>
       </c>
       <c r="B38" t="str">
-        <v>Brief 6.10 - TEST ROUTINE PROJECTS</v>
+        <v>Brief 6.4 - ENGINEERING MEASUREMENT, TEST AND CONTROL</v>
       </c>
       <c r="C38" t="str">
         <v>All potential R&amp;D</v>
@@ -2466,22 +2465,22 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>mAv25HuwpEau_c97lnuLm5cAP0P0</v>
+        <v>PAzpS31YjUiR5TTaVxG3SJcAGgBx</v>
       </c>
       <c r="B39" t="str">
-        <v>Lead Acid Battery case</v>
+        <v>Brief 6.3 - ELECTRONIC ENGINEERING: MODERN ELECTRONIC TEST AND MEASUREMENT</v>
       </c>
       <c r="C39" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D39" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E39" t="str">
-        <v>Urgent</v>
+        <v>Medium</v>
       </c>
       <c r="F39" t="str">
-        <v>Valerii Pozdeev</v>
+        <v/>
       </c>
       <c r="G39" t="str">
         <v>Jack Murphy</v>
@@ -2490,10 +2489,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I39" t="str">
-        <v>23/09/2025</v>
+        <v/>
       </c>
       <c r="J39" t="str">
-        <v>03/10/2025</v>
+        <v/>
       </c>
       <c r="K39" t="str">
         <v>false</v>
@@ -2508,45 +2507,42 @@
         <v/>
       </c>
       <c r="O39" t="str">
-        <v>3/4</v>
+        <v/>
       </c>
       <c r="P39" t="str">
-        <v>BETA;First prototype;Hand project over to Maciej;Alpha</v>
+        <v/>
       </c>
       <c r="Q39" t="str">
         <v/>
-      </c>
-      <c r="R39" t="str">
-        <v>This is a top priority</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>mKuZbSSpbkmnlrwa34wvGpcAO-R5</v>
+        <v>TTq9W8owZUOuoltQHmW6Y5cAE3Kz</v>
       </c>
       <c r="B40" t="str">
-        <v>IM phase 2</v>
+        <v>Metal plates  for gutted on forklift</v>
       </c>
       <c r="C40" t="str">
-        <v>Research Phase</v>
+        <v>In House projects</v>
       </c>
       <c r="D40" t="str">
-        <v>In progress</v>
+        <v>Not started</v>
       </c>
       <c r="E40" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F40" t="str">
-        <v>Hamed Adefuwa</v>
+        <v/>
       </c>
       <c r="G40" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H40" t="str">
-        <v>01/09/2025</v>
+        <v>05/09/2025</v>
       </c>
       <c r="I40" t="str">
-        <v>08/09/2025</v>
+        <v/>
       </c>
       <c r="J40" t="str">
         <v/>
@@ -2564,10 +2560,10 @@
         <v/>
       </c>
       <c r="O40" t="str">
-        <v>0/2</v>
+        <v/>
       </c>
       <c r="P40" t="str">
-        <v>Electrical maintenance;Fluids troubleshooting</v>
+        <v/>
       </c>
       <c r="Q40" t="str">
         <v/>
@@ -2575,34 +2571,34 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>ojMCcsMsfE2rwZMZz9o_TJcAKIMo</v>
+        <v>OJuB4cNrqU2ahuZsOmJjo5cAPg2I</v>
       </c>
       <c r="B41" t="str">
-        <v>Brief 6.2 - ELECTRONIC ENGINEERING: E-BLOCKS 2 TECHNOLOGY UPDATE</v>
+        <v>Process Control Branding Plates</v>
       </c>
       <c r="C41" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D41" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E41" t="str">
         <v>Medium</v>
       </c>
       <c r="F41" t="str">
-        <v/>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="G41" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H41" t="str">
-        <v>01/09/2025</v>
+        <v>04/09/2025</v>
       </c>
       <c r="I41" t="str">
-        <v/>
+        <v>22/09/2025</v>
       </c>
       <c r="J41" t="str">
-        <v/>
+        <v>10/10/2025</v>
       </c>
       <c r="K41" t="str">
         <v>false</v>
@@ -2617,45 +2613,48 @@
         <v/>
       </c>
       <c r="O41" t="str">
-        <v/>
+        <v>4/5</v>
       </c>
       <c r="P41" t="str">
-        <v/>
+        <v>prototype made;fitted to product;bom changes;Recreating a work instructions;instructions update</v>
       </c>
       <c r="Q41" t="str">
         <v/>
+      </c>
+      <c r="R41" t="str">
+        <v>2 plates with engraves to be fitted across all process control</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>pvD9Pq_OBEyaQLyk99YoEpcAHGIh</v>
+        <v>5y5l0fIjeE624LD42EA5mZcAD5gR</v>
       </c>
       <c r="B42" t="str">
-        <v>Brief 6.32 - IOT/MOBILE DEVICES PACK</v>
+        <v>Structures branding plates</v>
       </c>
       <c r="C42" t="str">
-        <v>All potential R&amp;D</v>
+        <v>In Progress</v>
       </c>
       <c r="D42" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E42" t="str">
         <v>Medium</v>
       </c>
       <c r="F42" t="str">
-        <v/>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="G42" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H42" t="str">
-        <v>05/09/2025</v>
+        <v>04/09/2025</v>
       </c>
       <c r="I42" t="str">
-        <v/>
+        <v>22/09/2025</v>
       </c>
       <c r="J42" t="str">
-        <v/>
+        <v>10/10/2025</v>
       </c>
       <c r="K42" t="str">
         <v>false</v>
@@ -2670,24 +2669,27 @@
         <v/>
       </c>
       <c r="O42" t="str">
-        <v/>
+        <v>3/4</v>
       </c>
       <c r="P42" t="str">
-        <v/>
+        <v>bom changes;instructions updated;prototypes made;fittted to prototypes</v>
       </c>
       <c r="Q42" t="str">
         <v/>
+      </c>
+      <c r="R42" t="str">
+        <v>structure branding plates to be pushed through to production</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>qxAmuVLesU2luN08B0i8YpcAPfzC</v>
+        <v>4jzs484rA0C8U2O-n-eLFpcAJH_B</v>
       </c>
       <c r="B43" t="str">
-        <v>Brief 6.8 - HYBRID ENGINE INVESTIGATION</v>
+        <v>Brief 6.26 - Robot Arm V3</v>
       </c>
       <c r="C43" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Research Phase</v>
       </c>
       <c r="D43" t="str">
         <v>Not started</v>
@@ -2696,19 +2698,19 @@
         <v>Medium</v>
       </c>
       <c r="F43" t="str">
-        <v/>
+        <v>Muhammad Abdullah;Ben Rowland;Jack Murphy</v>
       </c>
       <c r="G43" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H43" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I43" t="str">
-        <v/>
+        <v>15/08/2025</v>
       </c>
       <c r="J43" t="str">
-        <v/>
+        <v>14/08/2026</v>
       </c>
       <c r="K43" t="str">
         <v>false</v>
@@ -2723,10 +2725,10 @@
         <v/>
       </c>
       <c r="O43" t="str">
-        <v/>
+        <v>0/3</v>
       </c>
       <c r="P43" t="str">
-        <v/>
+        <v>electrical research;brief review and direction;mechanical research</v>
       </c>
       <c r="Q43" t="str">
         <v/>
@@ -2734,13 +2736,13 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>tlbKUPPqXEypJ6EHCWVihJcAEUux</v>
+        <v>ojMCcsMsfE2rwZMZz9o_TJcAKIMo</v>
       </c>
       <c r="B44" t="str">
-        <v>Wind Tunnel - Gratnell tray updated</v>
+        <v>Brief 6.2 - ELECTRONIC ENGINEERING: E-BLOCKS 2 TECHNOLOGY UPDATE</v>
       </c>
       <c r="C44" t="str">
-        <v>Production Based Projects</v>
+        <v>All potential R&amp;D</v>
       </c>
       <c r="D44" t="str">
         <v>Not started</v>
@@ -2787,19 +2789,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>v8BTHtyLKU-bb6Pwww3ZUZcAG5xf</v>
+        <v>tlbKUPPqXEypJ6EHCWVihJcAEUux</v>
       </c>
       <c r="B45" t="str">
-        <v>MICRO CNC v2</v>
+        <v>Wind Tunnel - Gratnell tray updated</v>
       </c>
       <c r="C45" t="str">
-        <v>Research Phase</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D45" t="str">
         <v>Not started</v>
       </c>
       <c r="E45" t="str">
-        <v>Low</v>
+        <v>Medium</v>
       </c>
       <c r="F45" t="str">
         <v/>
@@ -2808,7 +2810,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H45" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I45" t="str">
         <v/>
@@ -2840,10 +2842,10 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>wftDtTg_O06btXjrQlMMWZcANZTc</v>
+        <v>M8KSVEgENUydEcfHESEVXJcABFSd</v>
       </c>
       <c r="B46" t="str">
-        <v>Brief 6.30 - WIND TURBINE GENERATOR</v>
+        <v xml:space="preserve">Brief 6.1 - FLOWCODE: DIGITAL COMMUNICATIONS COURSE FOR FLOWCODE </v>
       </c>
       <c r="C46" t="str">
         <v>All potential R&amp;D</v>
@@ -2852,7 +2854,7 @@
         <v>Not started</v>
       </c>
       <c r="E46" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F46" t="str">
         <v/>
@@ -2861,7 +2863,7 @@
         <v>Jack Murphy</v>
       </c>
       <c r="H46" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I46" t="str">
         <v/>
@@ -2893,37 +2895,37 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>ws9XepYKmUCGaUIsk0mwqZcAMTIe</v>
+        <v>5UmyMdjJPEO5_fMtQyP91pcAHGDW</v>
       </c>
       <c r="B47" t="str">
-        <v>Brief 6.27 - VIBRATION MASS DAMPENER</v>
+        <v>IM- PLC fundamentals</v>
       </c>
       <c r="C47" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Handover Phase</v>
       </c>
       <c r="D47" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E47" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>Hamed Adefuwa;Maciej Kedzierski</v>
       </c>
       <c r="G47" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H47" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I47" t="str">
-        <v/>
+        <v>29/07/2024</v>
       </c>
       <c r="J47" t="str">
-        <v/>
+        <v>31/10/2025</v>
       </c>
       <c r="K47" t="str">
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="L47" t="str">
         <v>false</v>
@@ -2935,10 +2937,10 @@
         <v/>
       </c>
       <c r="O47" t="str">
-        <v/>
+        <v>3/5</v>
       </c>
       <c r="P47" t="str">
-        <v/>
+        <v>Wiring Diagram;Build instructions;BOM generated and handed over;Test routine;Curriculum Review</v>
       </c>
       <c r="Q47" t="str">
         <v/>
@@ -2946,31 +2948,31 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>wzxZt6TsGE6nPwwL8pI2v5cAOj9G</v>
+        <v>mKuZbSSpbkmnlrwa34wvGpcAO-R5</v>
       </c>
       <c r="B48" t="str">
-        <v>Brief 6.22 - HP2001 V2</v>
+        <v>IM - Electrical Troubleshooting</v>
       </c>
       <c r="C48" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Research Phase</v>
       </c>
       <c r="D48" t="str">
-        <v>Not started</v>
+        <v>In progress</v>
       </c>
       <c r="E48" t="str">
-        <v>Medium</v>
+        <v>Low</v>
       </c>
       <c r="F48" t="str">
-        <v/>
+        <v>Hamed Adefuwa</v>
       </c>
       <c r="G48" t="str">
         <v>Jack Murphy</v>
       </c>
       <c r="H48" t="str">
-        <v>05/09/2025</v>
+        <v>01/09/2025</v>
       </c>
       <c r="I48" t="str">
-        <v/>
+        <v>08/09/2025</v>
       </c>
       <c r="J48" t="str">
         <v/>
@@ -2999,22 +3001,22 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>xpWypIc2Vk2N2zfAGXcO-5cAE-gU</v>
+        <v>PJGZwd4qx0SmyUwcqEm92ZcALvzQ</v>
       </c>
       <c r="B49" t="str">
-        <v>Brief 6.14 - MATERIALS TESTER – UNIVERSAL TESTING MACHINE</v>
+        <v>EM Test Jig</v>
       </c>
       <c r="C49" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D49" t="str">
-        <v>Not started</v>
+        <v>Completed</v>
       </c>
       <c r="E49" t="str">
-        <v>Medium</v>
+        <v>Important</v>
       </c>
       <c r="F49" t="str">
-        <v/>
+        <v>Ben Rowland;Maciej Kedzierski</v>
       </c>
       <c r="G49" t="str">
         <v>Jack Murphy</v>
@@ -3035,16 +3037,16 @@
         <v>false</v>
       </c>
       <c r="M49" t="str">
-        <v/>
+        <v>08/10/2025</v>
       </c>
       <c r="N49" t="str">
-        <v/>
+        <v>Ben Rowland</v>
       </c>
       <c r="O49" t="str">
-        <v/>
+        <v>4/4</v>
       </c>
       <c r="P49" t="str">
-        <v/>
+        <v>Make Jig for Driver board to make it easier to quick connect;Make MDF jig;Hand over to production;Obtain production batch of boards</v>
       </c>
       <c r="Q49" t="str">
         <v/>
@@ -3052,22 +3054,22 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>ymv4q1HX9kyyyWG45fAYZJcAHlR1</v>
+        <v>mAv25HuwpEau_c97lnuLm5cAP0P0</v>
       </c>
       <c r="B50" t="str">
-        <v>IM- Maintenance of Closed Loop</v>
+        <v>Lead Acid Battery case</v>
       </c>
       <c r="C50" t="str">
-        <v>Production Handover Phase</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D50" t="str">
-        <v>In progress</v>
+        <v>Completed</v>
       </c>
       <c r="E50" t="str">
-        <v>Important</v>
+        <v>Urgent</v>
       </c>
       <c r="F50" t="str">
-        <v>Hamed Adefuwa;Maciej Kedzierski</v>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="G50" t="str">
         <v>Jack Murphy</v>
@@ -3076,10 +3078,10 @@
         <v>05/09/2025</v>
       </c>
       <c r="I50" t="str">
-        <v>29/01/2024</v>
+        <v>23/09/2025</v>
       </c>
       <c r="J50" t="str">
-        <v>31/10/2025</v>
+        <v>03/10/2025</v>
       </c>
       <c r="K50" t="str">
         <v>false</v>
@@ -3088,33 +3090,36 @@
         <v>false</v>
       </c>
       <c r="M50" t="str">
-        <v/>
+        <v>06/10/2025</v>
       </c>
       <c r="N50" t="str">
-        <v/>
+        <v>Valerii Pozdeev</v>
       </c>
       <c r="O50" t="str">
-        <v>3/5</v>
+        <v>4/4</v>
       </c>
       <c r="P50" t="str">
-        <v>Wiring Diagram;Curriculum Review;Build instructions;BOM generated and handed over;Test routine</v>
+        <v>BETA;First prototype;Hand project over to Maciej;Alpha</v>
       </c>
       <c r="Q50" t="str">
         <v/>
+      </c>
+      <c r="R50" t="str">
+        <v>This is a top priority</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>zKVMMZ3HPUyvulFIMKe_cZcAASp7</v>
+        <v>U0i4wOBB5Ueu9KrPSDGfn5cAPVh5</v>
       </c>
       <c r="B51" t="str">
-        <v>Brief 6.9 - ROBOT ARM: PLC PROGRAMMING</v>
+        <v>3 Phase Test Jig</v>
       </c>
       <c r="C51" t="str">
-        <v>All potential R&amp;D</v>
+        <v>Production Based Projects</v>
       </c>
       <c r="D51" t="str">
-        <v>Not started</v>
+        <v>Completed</v>
       </c>
       <c r="E51" t="str">
         <v>Medium</v>
@@ -3141,10 +3146,10 @@
         <v>false</v>
       </c>
       <c r="M51" t="str">
-        <v/>
+        <v>17/09/2025</v>
       </c>
       <c r="N51" t="str">
-        <v/>
+        <v>Jack Murphy</v>
       </c>
       <c r="O51" t="str">
         <v/>
@@ -3195,7 +3200,7 @@
         <v>Date of export</v>
       </c>
       <c r="B3" t="str">
-        <v>01/10/2025</v>
+        <v>10/10/2025</v>
       </c>
     </row>
   </sheetData>
